--- a/data/trans_dic/LAWTONB_2R2-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/LAWTONB_2R2-Provincia-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -646,7 +647,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -724,69 +725,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>12,71; 41,57</t>
+          <t>12,56; 39,42</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>17,55; 45,62</t>
+          <t>18,17; 46,23</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>11,88; 36,85</t>
+          <t>12,59; 36,85</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>38,94; 61,52</t>
+          <t>38,28; 60,02</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>12,8; 42,49</t>
+          <t>13,58; 41,78</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>47,41; 75,49</t>
+          <t>47,82; 74,93</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>37,95; 68,15</t>
+          <t>38,29; 67,66</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>43,77; 61,06</t>
+          <t>44,23; 61,14</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>16,83; 36,23</t>
+          <t>16,55; 36,86</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>36,22; 57,9</t>
+          <t>36,92; 58,69</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>29,02; 49,89</t>
+          <t>28,27; 50,28</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>44,4; 58,12</t>
+          <t>44,41; 58,44</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -864,69 +865,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>14,78; 36,59</t>
+          <t>15,17; 36,03</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>18,39; 42,66</t>
+          <t>19,02; 41,82</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>9,37; 24,31</t>
+          <t>8,89; 23,47</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>12,89; 28,59</t>
+          <t>12,66; 29,47</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>15,58; 32,94</t>
+          <t>15,54; 32,46</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>33,05; 53,59</t>
+          <t>33,37; 53,3</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>24,49; 44,73</t>
+          <t>24,06; 43,92</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>38,17; 51,79</t>
+          <t>37,99; 51,6</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>17,62; 30,86</t>
+          <t>17,11; 30,34</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>29,89; 45,58</t>
+          <t>29,64; 44,91</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>19,88; 32,44</t>
+          <t>19,57; 32,52</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>30,18; 40,92</t>
+          <t>30,13; 40,54</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>10,98; 31,68</t>
+          <t>11,13; 33,05</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>15,08; 40,1</t>
+          <t>14,98; 39,93</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>14,88; 33,08</t>
+          <t>14,26; 34,14</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>27,66; 45,4</t>
+          <t>27,38; 45,08</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>32,9; 53,71</t>
+          <t>32,41; 54,52</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>23,11; 44,67</t>
+          <t>22,62; 43,76</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>13,3; 33,23</t>
+          <t>12,72; 33,29</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>43,7; 59,97</t>
+          <t>43,93; 59,6</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>27,07; 42,52</t>
+          <t>27,13; 42,95</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>22,63; 38,85</t>
+          <t>22,01; 37,97</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>15,77; 31,11</t>
+          <t>15,86; 30,65</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>38,65; 51,19</t>
+          <t>38,92; 50,38</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>17,08; 39,77</t>
+          <t>16,66; 38,44</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>22,21; 46,04</t>
+          <t>22,57; 45,77</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>15,15; 34,73</t>
+          <t>13,93; 34,16</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>16,33; 31,77</t>
+          <t>16,41; 31,5</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>32,54; 54,82</t>
+          <t>32,85; 54,98</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>36,84; 58,3</t>
+          <t>36,68; 57,83</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>21,89; 44,06</t>
+          <t>21,81; 43,88</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>29,23; 41,14</t>
+          <t>29,51; 40,94</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>29,57; 46,03</t>
+          <t>29,41; 45,34</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>32,49; 49,24</t>
+          <t>33,02; 49,64</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>21,31; 36,64</t>
+          <t>20,61; 35,75</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>25,72; 35,45</t>
+          <t>25,59; 34,89</t>
         </is>
       </c>
     </row>
@@ -1284,69 +1285,69 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>17,26; 47,5</t>
+          <t>16,89; 47,94</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>13,81; 47,57</t>
+          <t>13,63; 44,94</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>5,49; 22,47</t>
+          <t>3,93; 22,23</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>17,63; 38,45</t>
+          <t>16,9; 37,07</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>23,49; 54,07</t>
+          <t>24,16; 54,26</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>35,9; 63,98</t>
+          <t>36,24; 63,49</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>32,78; 63,31</t>
+          <t>33,89; 63,75</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>22,89; 37,74</t>
+          <t>22,22; 36,86</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>23,24; 46,67</t>
+          <t>23,36; 44,45</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>30,99; 53,48</t>
+          <t>30,66; 52,61</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>21,5; 41,56</t>
+          <t>22,34; 42,42</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>22,12; 33,93</t>
+          <t>22,39; 34,34</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1424,69 +1425,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>23,35; 51,01</t>
+          <t>25,65; 52,85</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>22,76; 49,3</t>
+          <t>22,6; 49,11</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>20,32; 42,51</t>
+          <t>20,2; 44,26</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>32,4; 48,22</t>
+          <t>31,53; 48,73</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>27,82; 51,67</t>
+          <t>27,95; 51,82</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>19,88; 41,26</t>
+          <t>19,84; 42,42</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>22,44; 48,21</t>
+          <t>21,75; 47,3</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>43,67; 59,47</t>
+          <t>44,22; 57,65</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>30,23; 47,96</t>
+          <t>30,43; 49,2</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>24,69; 41,04</t>
+          <t>24,39; 40,73</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>24,58; 42,75</t>
+          <t>24,37; 41,95</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>40,38; 51,81</t>
+          <t>40,24; 51,48</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>12,43; 26,3</t>
+          <t>12,49; 27,21</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>18,59; 36,14</t>
+          <t>17,71; 35,25</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>17,71; 33,1</t>
+          <t>17,39; 33,11</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>12,75; 25,09</t>
+          <t>12,74; 24,9</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>25,16; 42,69</t>
+          <t>25,37; 43,43</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>26,28; 42,78</t>
+          <t>26,72; 43,2</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>32,93; 49,99</t>
+          <t>33,57; 50,89</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>4,19; 41,47</t>
+          <t>4,54; 41,64</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>20,58; 32,78</t>
+          <t>20,84; 32,75</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>25,03; 37,53</t>
+          <t>25,13; 37,07</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>28,02; 40,58</t>
+          <t>28,45; 40,85</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>5,47; 30,53</t>
+          <t>5,3; 30,93</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1705,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>23,32; 40,2</t>
+          <t>23,62; 41,14</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>10,82; 26,32</t>
+          <t>9,93; 25,7</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>12,84; 25,94</t>
+          <t>13,26; 25,8</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>9,45; 18,24</t>
+          <t>9,48; 18,5</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>24,71; 39,31</t>
+          <t>24,29; 39,76</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>23,32; 38,38</t>
+          <t>23,88; 39,14</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>24,99; 40,3</t>
+          <t>24,43; 41,45</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>30,84; 40,76</t>
+          <t>30,18; 40,68</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>26,73; 38,25</t>
+          <t>26,47; 37,94</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>19,41; 30,14</t>
+          <t>20,02; 30,47</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>20,6; 31,87</t>
+          <t>21,37; 31,84</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>22,54; 29,63</t>
+          <t>22,47; 29,54</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1845,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>22,74; 30,53</t>
+          <t>22,83; 30,2</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>22,85; 30,85</t>
+          <t>23,08; 31,0</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>17,9; 24,19</t>
+          <t>17,94; 24,15</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>22,91; 28,46</t>
+          <t>22,65; 28,14</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>30,92; 38,41</t>
+          <t>30,72; 38,03</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>34,82; 42,23</t>
+          <t>35,18; 42,4</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>31,89; 39,27</t>
+          <t>31,84; 39,11</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>18,23; 41,92</t>
+          <t>17,34; 42,22</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>28,38; 33,46</t>
+          <t>28,02; 33,51</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>30,78; 36,06</t>
+          <t>30,78; 36,16</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>26,61; 31,63</t>
+          <t>27,09; 32,14</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>20,97; 34,9</t>
+          <t>21,06; 34,9</t>
         </is>
       </c>
     </row>
@@ -1928,4 +1929,2048 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con algún grado de dependencia funcional para actividades instrumentales de la vida diaria (Lawton y Brody)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>8669</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>13546</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>8998</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>27759</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>10242</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>30510</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>25737</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>33314</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>18911</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>44057</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>34736</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>61074</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>4443; 13948</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>8048; 20470</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>4895; 14334</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>21400; 33554</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>5328; 16392</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>23382; 36637</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>18911; 33418</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>28046; 38766</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>12348; 27502</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>34403; 54685</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>24957; 44393</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>52984; 69730</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>117</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>16280</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>23518</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>13599</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>16193</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>22709</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>43483</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>39038</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>57303</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>38989</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>67001</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>52637</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>73497</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>10108; 24014</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>15062; 33122</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>7761; 20486</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>10111; 23535</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>15213; 31771</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>34067; 54417</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>27728; 50610</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>48805; 66288</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>28156; 49910</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>53728; 81427</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>39629; 65857</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>62760; 84441</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>10419</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>14399</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>14736</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>26870</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>35745</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>26492</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>17328</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>44891</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>46164</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>40891</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>32064</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>71761</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>5669; 16835</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>8349; 22258</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>9064; 21695</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>20122; 33126</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>27068; 45534</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>18089; 34997</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>10163; 26595</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>38161; 51764</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>36482; 57750</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>29874; 51532</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>22751; 43970</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>62415; 80783</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>117</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>15086</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>21285</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>14928</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>17122</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>32783</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>40400</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>29381</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>36409</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>47870</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>61684</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>44308</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>53531</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>9183; 21189</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>14450; 29304</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>9017; 22106</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>11970; 22973</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>24409; 40857</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>31388; 49486</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>19969; 40180</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>30581; 42428</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>38064; 58687</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>49402; 74263</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>32212; 55865</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>45182; 61603</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Huelva</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>8639</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>8975</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>4932</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>8993</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>15618</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>25261</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>24160</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>17268</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>24257</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>34236</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>29091</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>26260</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>4957; 14068</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>4308; 14206</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>1652; 9353</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>5884; 12907</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>9963; 22380</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>18068; 31653</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>17127; 32215</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>13085; 21710</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>16494; 31378</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>24976; 42863</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>20686; 39290</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>20978; 32178</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Jaén</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>151</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>17969</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>18082</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>14935</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>24015</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>27954</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>21283</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>23389</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>33151</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>45923</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>39365</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>38324</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>57166</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>12106; 24945</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>11696; 25415</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>9787; 21440</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>18999; 29366</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>19650; 36434</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>13932; 29781</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>14657; 31873</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>28508; 37164</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>35752; 57815</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>29750; 49680</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>28232; 48591</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>50192; 64202</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Málaga</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>121</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>19551</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>29326</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>27480</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>22603</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>39174</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>49367</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>61722</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>52413</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>58725</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>78693</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>89202</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>75016</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>13227; 28819</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>19885; 39572</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>19504; 37149</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>15615; 30512</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>29711; 50865</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>37935; 61321</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>49559; 75130</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>15340; 140544</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>46481; 73050</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>63889; 94235</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>73918; 106120</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>24376; 142316</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>35595</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>20825</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>24736</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>19451</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>48518</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>49823</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>56751</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>66137</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>84113</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>70648</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>81487</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>85588</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>26426; 46028</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>11988; 31035</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>17795; 34609</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>13710; 26750</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>37218; 60930</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>39259; 64346</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>43064; 73067</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>56120; 75642</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>70182; 100586</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>57079; 86892</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>66361; 98852</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>74287; 97653</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>139</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>133</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>139</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>268</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>217</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>263</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>223</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>696</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>356</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>396</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>362</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>964</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>132209</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>149957</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>124343</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>163005</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>232744</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>286619</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>277505</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>340887</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>364953</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>436575</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>401848</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>503892</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>114697; 151761</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>129139; 173471</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>106103; 142797</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>145980; 181314</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>207894; 257407</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>261377; 315014</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>247689; 304264</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>178478; 434506</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>330432; 395194</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>400951; 471055</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>370897; 440086</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>352520; 584126</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>